--- a/tests/test_files/custom/gpucustom_handcalculated.xlsx
+++ b/tests/test_files/custom/gpucustom_handcalculated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\East\Work\tidemetrics\tests\test_files\custom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BDCD57C-19B4-45B7-BBFE-F672354C0F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77160124-A00C-4600-917C-73A283BD27EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7296" yWindow="4908" windowWidth="27708" windowHeight="16656" xr2:uid="{C16617E1-1E94-4E52-9822-6025B219A803}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{C17ACBF5-592F-4C6C-95EB-23B301B16E23}"/>
   </bookViews>
   <sheets>
     <sheet name="gpucustom" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>{container="notebook", instance="10.244.17.213:8443", job="kube-state-metrics", namespace="ns1", node="rci-nrp-gpu-07.sdsu.edu", phase="Running", pod="jupyter-kkrick-40sdsu-2eedu", prometheus="monitoring/k8s", resource="nvidia_com_gpu", uid="e2c2ecf3-5b3a-4c60-bf85-121995eceb56", unit="integer"}</t>
+    <t>{ namespace="ns1",uid="uid1"}</t>
   </si>
   <si>
-    <t>{container="notebook", instance="10.244.247.85:8443", job="kube-state-metrics", namespace="ns2", node="rci-nrp-gpu-07.sdsu.edu", phase="Running", pod="jupyter-anara-40sdsu-2eedu", prometheus="monitoring/k8s", resource="nvidia_com_gpu", uid="96088d09-e9d6-410c-9b12-c5d4bc56a739", unit="integer"}</t>
+    <t>{ namespace="ns2",uid="uid4"}</t>
   </si>
   <si>
-    <t>{container="notebook", instance="10.244.247.85:8443", job="kube-state-metrics", namespace="ns3", node="rci-nrp-gpu-08.sdsu.edu", phase="Running", pod="jupyter-vkothapally-40sdsu-2eedu", prometheus="monitoring/k8s", resource="nvidia_com_gpu", uid="097db353-102c-49b8-a3fe-94d4a2fe8987", unit="integer"}</t>
+    <t>{ namespace="ns3",uid="uid6"}</t>
   </si>
   <si>
-    <t>{container="notebook", instance="10.244.247.85:8443", job="kube-state-metrics", namespace="ns4", node="rci-nrp-gpu-08.sdsu.edu", phase="Running", pod="jupyter-vkothapally-40sdsu-2eedu", prometheus="monitoring/k8s", resource="nvidia_com_gpu", uid="3a7e66d2-7a09-4c90-b101-37b12eb8a59e", unit="integer"}</t>
+    <t>{ namespace="ns4",uid="uid9"}</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>TotalJobs</t>
   </si>
 </sst>
 </file>
@@ -177,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +364,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -518,9 +551,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -895,30 +932,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C1477C-CCA8-442F-A036-48002050E05B}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A65A086-CEA4-4980-AB44-8E20761622E8}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1018,22 +1054,50 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
       <c r="B12">
+        <f>SUM(B2:B11)</f>
         <v>7</v>
       </c>
       <c r="C12">
+        <f t="shared" ref="C12:E12" si="0">SUM(C2:C11)</f>
         <v>12</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="E12">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
       <c r="B13">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B13:E13)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
